--- a/src/python/Comp230/store_data.xlsx
+++ b/src/python/Comp230/store_data.xlsx
@@ -469,52 +469,6 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -611,6 +565,52 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -768,27 +768,27 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E12" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:E12"/>
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Product_id" dataDxfId="17" totalsRowDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Product_name" dataDxfId="16" totalsRowDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Product_desc" dataDxfId="15" totalsRowDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Unit-Price" totalsRowDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="Total_stock" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Product_id" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Product_name" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Product_desc" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Unit-Price" totalsRowDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="Total_stock" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E32" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:E32"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Invoice_id" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Customer_id" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Order_date" dataDxfId="9"/>
-    <tableColumn id="4" name="Invoice_amt" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="5" name="Shipping_add" dataDxfId="7" dataCellStyle="Normal 2">
+    <tableColumn id="1" name="Invoice_id" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Customer_id" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Order_date" dataDxfId="4"/>
+    <tableColumn id="4" name="Invoice_amt" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="5" name="Shipping_add" dataDxfId="2" dataCellStyle="Normal 2">
       <calculatedColumnFormula>VLOOKUP(Table3[[#This Row],[Customer_id]],Table1[[Customer_id]:[Address]],5,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -803,7 +803,7 @@
     <sortCondition ref="A1:A91"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Invoice_id" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Invoice_id" dataDxfId="1" dataCellStyle="Normal 2"/>
     <tableColumn id="2" name="Product_id"/>
     <tableColumn id="3" name="Product_name"/>
     <tableColumn id="4" name="Unit_Price"/>
@@ -811,7 +811,7 @@
     <tableColumn id="6" name="Total">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Invoice Total " dataDxfId="5"/>
+    <tableColumn id="7" name="Invoice Total " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L18:L19"/>
+      <selection activeCell="O19" sqref="O18:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F29" si="0">D3*E3</f>
         <v>47.37</v>
       </c>
       <c r="G3" s="17"/>

--- a/src/python/Comp230/store_data.xlsx
+++ b/src/python/Comp230/store_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -799,9 +799,6 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G91" totalsRowShown="0">
   <autoFilter ref="A1:G91"/>
-  <sortState ref="A2:F91">
-    <sortCondition ref="A1:A91"/>
-  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Invoice_id" dataDxfId="1" dataCellStyle="Normal 2"/>
     <tableColumn id="2" name="Product_id"/>
@@ -1567,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O18:O19"/>
     </sheetView>
   </sheetViews>
@@ -2171,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F29" si="0">D3*E3</f>
+        <f>D3*E3</f>
         <v>47.37</v>
       </c>
       <c r="G3" s="17"/>
@@ -2275,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>D4*E4</f>
         <v>240.57</v>
       </c>
       <c r="G4" s="17">
@@ -2302,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>D5*E5</f>
         <v>125.91</v>
       </c>
       <c r="G5" s="17"/>
@@ -2326,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>D6*E6</f>
         <v>143.88</v>
       </c>
       <c r="G6" s="17"/>
@@ -2350,7 +2347,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f>D7*E7</f>
         <v>314.78999999999996</v>
       </c>
       <c r="G7" s="17">
@@ -2377,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>D8*E8</f>
         <v>89.94</v>
       </c>
       <c r="G8" s="17"/>
@@ -2401,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>D9*E9</f>
         <v>349.65000000000003</v>
       </c>
       <c r="G9" s="17"/>
@@ -2425,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>D10*E10</f>
         <v>139.86000000000001</v>
       </c>
       <c r="G10" s="17">
@@ -2452,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>D11*E11</f>
         <v>71.94</v>
       </c>
       <c r="G11" s="17"/>
@@ -2476,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F13" si="1">D12*E12</f>
+        <f>D12*E12</f>
         <v>209.85</v>
       </c>
     </row>
@@ -2499,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f>D13*E13</f>
         <v>323.8</v>
       </c>
       <c r="G13" s="17">
@@ -2526,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>D14*E14</f>
         <v>94.74</v>
       </c>
     </row>
@@ -2549,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F16" si="2">D15*E15</f>
+        <f>D15*E15</f>
         <v>160.38</v>
       </c>
     </row>
@@ -2572,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>D16*E16</f>
         <v>47.37</v>
       </c>
       <c r="G16" s="17">
@@ -2599,7 +2596,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f>D17*E17</f>
         <v>244.93</v>
       </c>
     </row>
@@ -2622,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F19" si="3">D18*E18</f>
+        <f>D18*E18</f>
         <v>378.25</v>
       </c>
     </row>
@@ -2645,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f>D19*E19</f>
         <v>80.95</v>
       </c>
       <c r="G19" s="17">
@@ -2672,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f>D20*E20</f>
         <v>139.86000000000001</v>
       </c>
     </row>
@@ -2695,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:F22" si="4">D21*E21</f>
+        <f>D21*E21</f>
         <v>167.88</v>
       </c>
     </row>
@@ -2718,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f>D22*E22</f>
         <v>179.88</v>
       </c>
       <c r="G22" s="17">
@@ -2745,7 +2742,7 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f>D23*E23</f>
         <v>299.88</v>
       </c>
     </row>
@@ -2768,7 +2765,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F25" si="5">D24*E24</f>
+        <f>D24*E24</f>
         <v>224.85</v>
       </c>
     </row>
@@ -2791,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f>D25*E25</f>
         <v>279.72000000000003</v>
       </c>
       <c r="G25" s="17">
@@ -2818,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f>D26*E26</f>
         <v>226.95000000000002</v>
       </c>
     </row>
@@ -2841,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F28" si="6">D27*E27</f>
+        <f>D27*E27</f>
         <v>404.75</v>
       </c>
     </row>
@@ -2864,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="6"/>
+        <f>D28*E28</f>
         <v>83.94</v>
       </c>
       <c r="G28" s="17">
@@ -2891,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>D29*E29</f>
         <v>320.76</v>
       </c>
     </row>
@@ -2914,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F91" si="7">D30*E30</f>
+        <f>D30*E30</f>
         <v>314.78999999999996</v>
       </c>
     </row>
@@ -2937,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="F31">
-        <f t="shared" si="7"/>
+        <f>D31*E31</f>
         <v>143.88</v>
       </c>
       <c r="G31" s="17">
@@ -2964,7 +2961,7 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f>D32*E32</f>
         <v>314.91000000000003</v>
       </c>
     </row>
@@ -2987,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <f t="shared" si="7"/>
+        <f>D33*E33</f>
         <v>142.10999999999999</v>
       </c>
     </row>
@@ -3010,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f>D34*E34</f>
         <v>400.95</v>
       </c>
       <c r="G34" s="17">
@@ -3037,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f>D35*E35</f>
         <v>69.930000000000007</v>
       </c>
     </row>
@@ -3060,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f>D36*E36</f>
         <v>149.94</v>
       </c>
     </row>
@@ -3083,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f>D37*E37</f>
         <v>15.79</v>
       </c>
       <c r="G37" s="17">
@@ -3110,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f>D38*E38</f>
         <v>69.930000000000007</v>
       </c>
     </row>
@@ -3133,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f>D39*E39</f>
         <v>151.30000000000001</v>
       </c>
     </row>
@@ -3156,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f>D40*E40</f>
         <v>160.38</v>
       </c>
       <c r="G40" s="17">
@@ -3183,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f>D41*E41</f>
         <v>323.8</v>
       </c>
     </row>
@@ -3206,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f>D42*E42</f>
         <v>69.98</v>
       </c>
     </row>
@@ -3229,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f>D43*E43</f>
         <v>374.85</v>
       </c>
       <c r="G43" s="17">
@@ -3256,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f>D44*E44</f>
         <v>41.97</v>
       </c>
     </row>
@@ -3279,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f>D45*E45</f>
         <v>71.94</v>
       </c>
     </row>
@@ -3302,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f>D46*E46</f>
         <v>209.79000000000002</v>
       </c>
       <c r="G46" s="17">
@@ -3329,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f>D47*E47</f>
         <v>149.94</v>
       </c>
     </row>
@@ -3352,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f>D48*E48</f>
         <v>179.88</v>
       </c>
     </row>
@@ -3375,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f>D49*E49</f>
         <v>242.85000000000002</v>
       </c>
       <c r="G49" s="17">
@@ -3402,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f>D50*E50</f>
         <v>110.53</v>
       </c>
     </row>
@@ -3425,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f>D51*E51</f>
         <v>481.14</v>
       </c>
     </row>
@@ -3448,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f>D52*E52</f>
         <v>139.86000000000001</v>
       </c>
       <c r="G52" s="17">
@@ -3475,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f>D53*E53</f>
         <v>143.88</v>
       </c>
     </row>
@@ -3498,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="7"/>
+        <f>D54*E54</f>
         <v>80.95</v>
       </c>
     </row>
@@ -3521,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f>D55*E55</f>
         <v>125.91</v>
       </c>
       <c r="G55" s="17">
@@ -3548,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f t="shared" si="7"/>
+        <f>D56*E56</f>
         <v>74.97</v>
       </c>
     </row>
@@ -3571,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="7"/>
+        <f>D57*E57</f>
         <v>69.98</v>
       </c>
     </row>
@@ -3594,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <f t="shared" si="7"/>
+        <f>D58*E58</f>
         <v>134.91</v>
       </c>
       <c r="G58" s="17">
@@ -3621,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f>D59*E59</f>
         <v>151.30000000000001</v>
       </c>
     </row>
@@ -3644,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
+        <f>D60*E60</f>
         <v>80.19</v>
       </c>
     </row>
@@ -3667,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="F61">
-        <f t="shared" si="7"/>
+        <f>D61*E61</f>
         <v>151.30000000000001</v>
       </c>
       <c r="G61" s="17">
@@ -3694,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="F62">
-        <f t="shared" si="7"/>
+        <f>D62*E62</f>
         <v>224.91</v>
       </c>
     </row>
@@ -3717,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="F63">
-        <f t="shared" si="7"/>
+        <f>D63*E63</f>
         <v>299.88</v>
       </c>
     </row>
@@ -3740,7 +3737,7 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <f t="shared" si="7"/>
+        <f>D64*E64</f>
         <v>349.65000000000003</v>
       </c>
       <c r="G64" s="17">
@@ -3767,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="F65">
-        <f t="shared" si="7"/>
+        <f>D65*E65</f>
         <v>209.94</v>
       </c>
     </row>
@@ -3790,7 +3787,7 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <f t="shared" si="7"/>
+        <f>D66*E66</f>
         <v>63.16</v>
       </c>
     </row>
@@ -3813,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f t="shared" si="7"/>
+        <f>D67*E67</f>
         <v>71.94</v>
       </c>
       <c r="G67" s="17">
@@ -3840,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="F68">
-        <f t="shared" si="7"/>
+        <f>D68*E68</f>
         <v>314.78999999999996</v>
       </c>
     </row>
@@ -3863,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <f t="shared" si="7"/>
+        <f>D69*E69</f>
         <v>125.91</v>
       </c>
     </row>
@@ -3886,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <f t="shared" si="7"/>
+        <f>D70*E70</f>
         <v>143.88</v>
       </c>
       <c r="G70" s="17">
@@ -3913,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <f t="shared" si="7"/>
+        <f>D71*E71</f>
         <v>320.76</v>
       </c>
     </row>
@@ -3936,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <f t="shared" si="7"/>
+        <f>D72*E72</f>
         <v>174.95000000000002</v>
       </c>
     </row>
@@ -3959,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <f t="shared" si="7"/>
+        <f>D73*E73</f>
         <v>78.949999999999989</v>
       </c>
       <c r="G73" s="17">
@@ -3986,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="F74">
-        <f t="shared" si="7"/>
+        <f>D74*E74</f>
         <v>134.91</v>
       </c>
     </row>
@@ -4009,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <f t="shared" si="7"/>
+        <f>D75*E75</f>
         <v>125.91</v>
       </c>
     </row>
@@ -4032,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <f t="shared" si="7"/>
+        <f>D76*E76</f>
         <v>161.9</v>
       </c>
       <c r="G76" s="17">
@@ -4059,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="F77">
-        <f t="shared" si="7"/>
+        <f>D77*E77</f>
         <v>279.72000000000003</v>
       </c>
     </row>
@@ -4082,7 +4079,7 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <f t="shared" si="7"/>
+        <f>D78*E78</f>
         <v>378.25</v>
       </c>
     </row>
@@ -4105,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="F79">
-        <f t="shared" si="7"/>
+        <f>D79*E79</f>
         <v>242.85000000000002</v>
       </c>
       <c r="G79" s="17">
@@ -4132,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="F80">
-        <f t="shared" si="7"/>
+        <f>D80*E80</f>
         <v>302.60000000000002</v>
       </c>
     </row>
@@ -4155,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <f t="shared" si="7"/>
+        <f>D81*E81</f>
         <v>209.85</v>
       </c>
     </row>
@@ -4178,7 +4175,7 @@
         <v>6</v>
       </c>
       <c r="F82">
-        <f t="shared" si="7"/>
+        <f>D82*E82</f>
         <v>419.58000000000004</v>
       </c>
       <c r="G82" s="17">
@@ -4205,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="F83">
-        <f t="shared" si="7"/>
+        <f>D83*E83</f>
         <v>251.79</v>
       </c>
     </row>
@@ -4228,7 +4225,7 @@
         <v>3</v>
       </c>
       <c r="F84">
-        <f t="shared" si="7"/>
+        <f>D84*E84</f>
         <v>125.91</v>
       </c>
     </row>
@@ -4251,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="F85">
-        <f t="shared" si="7"/>
+        <f>D85*E85</f>
         <v>400.95</v>
       </c>
       <c r="G85" s="17">
@@ -4278,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="F86">
-        <f t="shared" si="7"/>
+        <f>D86*E86</f>
         <v>126.32</v>
       </c>
     </row>
@@ -4301,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="F87">
-        <f t="shared" si="7"/>
+        <f>D87*E87</f>
         <v>224.85</v>
       </c>
     </row>
@@ -4324,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="F88">
-        <f t="shared" si="7"/>
+        <f>D88*E88</f>
         <v>143.88</v>
       </c>
       <c r="G88" s="17">
@@ -4351,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="F89">
-        <f t="shared" si="7"/>
+        <f>D89*E89</f>
         <v>179.85</v>
       </c>
     </row>
@@ -4374,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <f t="shared" si="7"/>
+        <f>D90*E90</f>
         <v>279.92</v>
       </c>
     </row>
@@ -4397,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="F91">
-        <f t="shared" si="7"/>
+        <f>D91*E91</f>
         <v>209.79000000000002</v>
       </c>
       <c r="G91" s="17">

--- a/src/python/Comp230/store_data.xlsx
+++ b/src/python/Comp230/store_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O18:O19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1965,7 @@
         <v>102</v>
       </c>
       <c r="D22" s="10">
-        <v>874.44</v>
+        <v>754.5</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>VLOOKUP(Table3[[#This Row],[Customer_id]],Table1[[Customer_id]:[Address]],5,FALSE)</f>
@@ -2140,7 +2140,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="15">
         <f>SUM(D2:D31)</f>
-        <v>17300.290000000005</v>
+        <v>17180.350000000002</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,7 +2179,7 @@
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
+    <col min="7" max="7" width="15" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F33" si="0">D2*E2</f>
         <v>161.9</v>
       </c>
       <c r="G2" s="17"/>
@@ -2248,7 +2248,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>47.37</v>
       </c>
       <c r="G3" s="17"/>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>240.57</v>
       </c>
       <c r="G4" s="17">
@@ -2299,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>125.91</v>
       </c>
       <c r="G5" s="17"/>
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>143.88</v>
       </c>
       <c r="G6" s="17"/>
@@ -2347,7 +2347,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>314.78999999999996</v>
       </c>
       <c r="G7" s="17">
@@ -2374,7 +2374,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>89.94</v>
       </c>
       <c r="G8" s="17"/>
@@ -2398,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>349.65000000000003</v>
       </c>
       <c r="G9" s="17"/>
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>139.86000000000001</v>
       </c>
       <c r="G10" s="17">
@@ -2449,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>71.94</v>
       </c>
       <c r="G11" s="17"/>
@@ -2473,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>209.85</v>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>323.8</v>
       </c>
       <c r="G13" s="17">
@@ -2523,7 +2523,7 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>94.74</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>160.38</v>
       </c>
     </row>
@@ -2569,7 +2569,7 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>47.37</v>
       </c>
       <c r="G16" s="17">
@@ -2596,7 +2596,7 @@
         <v>7</v>
       </c>
       <c r="F17">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>244.93</v>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>378.25</v>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>80.95</v>
       </c>
       <c r="G19" s="17">
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>139.86000000000001</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>167.88</v>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>179.88</v>
       </c>
       <c r="G22" s="17">
@@ -2742,7 +2742,7 @@
         <v>4</v>
       </c>
       <c r="F23">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>299.88</v>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>224.85</v>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <f>D25*E25</f>
+        <f t="shared" si="0"/>
         <v>279.72000000000003</v>
       </c>
       <c r="G25" s="17">
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <f>D26*E26</f>
+        <f t="shared" si="0"/>
         <v>226.95000000000002</v>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
         <v>5</v>
       </c>
       <c r="F27">
-        <f>D27*E27</f>
+        <f t="shared" si="0"/>
         <v>404.75</v>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="F28">
-        <f>D28*E28</f>
+        <f t="shared" si="0"/>
         <v>83.94</v>
       </c>
       <c r="G28" s="17">
@@ -2888,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="F29">
-        <f>D29*E29</f>
+        <f t="shared" si="0"/>
         <v>320.76</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="F30">
-        <f>D30*E30</f>
+        <f t="shared" si="0"/>
         <v>314.78999999999996</v>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="F31">
-        <f>D31*E31</f>
+        <f t="shared" si="0"/>
         <v>143.88</v>
       </c>
       <c r="G31" s="17">
@@ -2961,7 +2961,7 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <f>D32*E32</f>
+        <f t="shared" si="0"/>
         <v>314.91000000000003</v>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <f>D33*E33</f>
+        <f t="shared" si="0"/>
         <v>142.10999999999999</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="F34">
-        <f>D34*E34</f>
+        <f t="shared" ref="F34:F65" si="1">D34*E34</f>
         <v>400.95</v>
       </c>
       <c r="G34" s="17">
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f>D35*E35</f>
+        <f t="shared" si="1"/>
         <v>69.930000000000007</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <f>D36*E36</f>
+        <f t="shared" si="1"/>
         <v>149.94</v>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f>D37*E37</f>
+        <f t="shared" si="1"/>
         <v>15.79</v>
       </c>
       <c r="G37" s="17">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f>D38*E38</f>
+        <f t="shared" si="1"/>
         <v>69.930000000000007</v>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <f>D39*E39</f>
+        <f t="shared" si="1"/>
         <v>151.30000000000001</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <f>D40*E40</f>
+        <f t="shared" si="1"/>
         <v>160.38</v>
       </c>
       <c r="G40" s="17">
@@ -3180,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <f>D41*E41</f>
+        <f t="shared" si="1"/>
         <v>323.8</v>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="F42">
-        <f>D42*E42</f>
+        <f t="shared" si="1"/>
         <v>69.98</v>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
         <v>5</v>
       </c>
       <c r="F43">
-        <f>D43*E43</f>
+        <f t="shared" si="1"/>
         <v>374.85</v>
       </c>
       <c r="G43" s="17">
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <f>D44*E44</f>
+        <f t="shared" si="1"/>
         <v>41.97</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f>D45*E45</f>
+        <f t="shared" si="1"/>
         <v>71.94</v>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <f>D46*E46</f>
+        <f t="shared" si="1"/>
         <v>209.79000000000002</v>
       </c>
       <c r="G46" s="17">
@@ -3326,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <f>D47*E47</f>
+        <f t="shared" si="1"/>
         <v>149.94</v>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <f>D48*E48</f>
+        <f t="shared" si="1"/>
         <v>179.88</v>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="F49">
-        <f>D49*E49</f>
+        <f t="shared" si="1"/>
         <v>242.85000000000002</v>
       </c>
       <c r="G49" s="17">
@@ -3399,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="F50">
-        <f>D50*E50</f>
+        <f t="shared" si="1"/>
         <v>110.53</v>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>6</v>
       </c>
       <c r="F51">
-        <f>D51*E51</f>
+        <f t="shared" si="1"/>
         <v>481.14</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <f>D52*E52</f>
+        <f t="shared" si="1"/>
         <v>139.86000000000001</v>
       </c>
       <c r="G52" s="17">
@@ -3472,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="F53">
-        <f>D53*E53</f>
+        <f t="shared" si="1"/>
         <v>143.88</v>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <f>D54*E54</f>
+        <f t="shared" si="1"/>
         <v>80.95</v>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="F55">
-        <f>D55*E55</f>
+        <f t="shared" si="1"/>
         <v>125.91</v>
       </c>
       <c r="G55" s="17">
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <f>D56*E56</f>
+        <f t="shared" si="1"/>
         <v>74.97</v>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="F57">
-        <f>D57*E57</f>
+        <f t="shared" si="1"/>
         <v>69.98</v>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="F58">
-        <f>D58*E58</f>
+        <f t="shared" si="1"/>
         <v>134.91</v>
       </c>
       <c r="G58" s="17">
@@ -3618,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <f>D59*E59</f>
+        <f t="shared" si="1"/>
         <v>151.30000000000001</v>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <f>D60*E60</f>
+        <f t="shared" si="1"/>
         <v>80.19</v>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
         <v>2</v>
       </c>
       <c r="F61">
-        <f>D61*E61</f>
+        <f t="shared" si="1"/>
         <v>151.30000000000001</v>
       </c>
       <c r="G61" s="17">
@@ -3677,22 +3677,22 @@
         <v>121</v>
       </c>
       <c r="B62">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(Table4[[#This Row],[Product_id]],Table2[[Product_id]:[Product_name]],2,FALSE)</f>
-        <v>Furosemide</v>
+        <v>Alendronate Sodium</v>
       </c>
       <c r="D62">
         <f>VLOOKUP(Table4[[#This Row],[Product_id]],Table2[[Product_id]:[Unit-Price]],4,FALSE)</f>
-        <v>74.97</v>
+        <v>34.99</v>
       </c>
       <c r="E62">
         <v>3</v>
       </c>
       <c r="F62">
-        <f>D62*E62</f>
-        <v>224.91</v>
+        <f t="shared" si="1"/>
+        <v>104.97</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="F63">
-        <f>D63*E63</f>
+        <f t="shared" si="1"/>
         <v>299.88</v>
       </c>
     </row>
@@ -3737,12 +3737,12 @@
         <v>5</v>
       </c>
       <c r="F64">
-        <f>D64*E64</f>
+        <f t="shared" si="1"/>
         <v>349.65000000000003</v>
       </c>
       <c r="G64" s="17">
         <f>SUM(F62:F64)</f>
-        <v>874.44</v>
+        <v>754.5</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="F65">
-        <f>D65*E65</f>
+        <f t="shared" si="1"/>
         <v>209.94</v>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
         <v>4</v>
       </c>
       <c r="F66">
-        <f>D66*E66</f>
+        <f t="shared" ref="F66:F91" si="2">D66*E66</f>
         <v>63.16</v>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <f>D67*E67</f>
+        <f t="shared" si="2"/>
         <v>71.94</v>
       </c>
       <c r="G67" s="17">
@@ -3837,7 +3837,7 @@
         <v>7</v>
       </c>
       <c r="F68">
-        <f>D68*E68</f>
+        <f t="shared" si="2"/>
         <v>314.78999999999996</v>
       </c>
     </row>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <f>D69*E69</f>
+        <f t="shared" si="2"/>
         <v>125.91</v>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <f>D70*E70</f>
+        <f t="shared" si="2"/>
         <v>143.88</v>
       </c>
       <c r="G70" s="17">
@@ -3910,7 +3910,7 @@
         <v>4</v>
       </c>
       <c r="F71">
-        <f>D71*E71</f>
+        <f t="shared" si="2"/>
         <v>320.76</v>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="F72">
-        <f>D72*E72</f>
+        <f t="shared" si="2"/>
         <v>174.95000000000002</v>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="F73">
-        <f>D73*E73</f>
+        <f t="shared" si="2"/>
         <v>78.949999999999989</v>
       </c>
       <c r="G73" s="17">
@@ -3983,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="F74">
-        <f>D74*E74</f>
+        <f t="shared" si="2"/>
         <v>134.91</v>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <f>D75*E75</f>
+        <f t="shared" si="2"/>
         <v>125.91</v>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="F76">
-        <f>D76*E76</f>
+        <f t="shared" si="2"/>
         <v>161.9</v>
       </c>
       <c r="G76" s="17">
@@ -4056,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="F77">
-        <f>D77*E77</f>
+        <f t="shared" si="2"/>
         <v>279.72000000000003</v>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
         <v>5</v>
       </c>
       <c r="F78">
-        <f>D78*E78</f>
+        <f t="shared" si="2"/>
         <v>378.25</v>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="F79">
-        <f>D79*E79</f>
+        <f t="shared" si="2"/>
         <v>242.85000000000002</v>
       </c>
       <c r="G79" s="17">
@@ -4129,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="F80">
-        <f>D80*E80</f>
+        <f t="shared" si="2"/>
         <v>302.60000000000002</v>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <f>D81*E81</f>
+        <f t="shared" si="2"/>
         <v>209.85</v>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
         <v>6</v>
       </c>
       <c r="F82">
-        <f>D82*E82</f>
+        <f t="shared" si="2"/>
         <v>419.58000000000004</v>
       </c>
       <c r="G82" s="17">
@@ -4202,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="F83">
-        <f>D83*E83</f>
+        <f t="shared" si="2"/>
         <v>251.79</v>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
         <v>3</v>
       </c>
       <c r="F84">
-        <f>D84*E84</f>
+        <f t="shared" si="2"/>
         <v>125.91</v>
       </c>
     </row>
@@ -4248,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="F85">
-        <f>D85*E85</f>
+        <f t="shared" si="2"/>
         <v>400.95</v>
       </c>
       <c r="G85" s="17">
@@ -4275,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="F86">
-        <f>D86*E86</f>
+        <f t="shared" si="2"/>
         <v>126.32</v>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="F87">
-        <f>D87*E87</f>
+        <f t="shared" si="2"/>
         <v>224.85</v>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
         <v>4</v>
       </c>
       <c r="F88">
-        <f>D88*E88</f>
+        <f t="shared" si="2"/>
         <v>143.88</v>
       </c>
       <c r="G88" s="17">
@@ -4348,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="F89">
-        <f>D89*E89</f>
+        <f t="shared" si="2"/>
         <v>179.85</v>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <f>D90*E90</f>
+        <f t="shared" si="2"/>
         <v>279.92</v>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="F91">
-        <f>D91*E91</f>
+        <f t="shared" si="2"/>
         <v>209.79000000000002</v>
       </c>
       <c r="G91" s="17">
@@ -4409,7 +4409,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products!$A$2:$A$11</xm:f>
